--- a/GPA.xlsx
+++ b/GPA.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PEK" sheetId="1" r:id="rId1"/>
+    <sheet name="WES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,7 +272,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +318,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -329,18 +325,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -376,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,23 +377,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,52 +396,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,7 +442,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="46">
     <dxf>
       <font>
         <b val="0"/>
@@ -699,31 +674,6 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -1277,7 +1227,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD19F49A-E903-4A51-8977-A81E6229F7EC}" name="表3" displayName="表3" ref="A1:F27" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AD19F49A-E903-4A51-8977-A81E6229F7EC}" name="表3" displayName="表3" ref="A1:F27" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:F27" xr:uid="{D3C6D59D-1CDD-4C27-A58D-C1B8B895B997}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1287,14 +1237,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C0322B93-5C79-4A6C-9576-192C286D3C74}" name="课程名称" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{6ED4F350-3216-4D68-A323-D21535FB852F}" name="成绩" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{B3993A62-2BED-4020-85AA-386AA1B4FB95}" name="学分" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{4BCD21C8-F70F-4419-AA0E-44DA38D05DA1}" name="GPA" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{E3688CA1-881B-42AE-8444-0464F94099C3}" name="加权GPA" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{C0322B93-5C79-4A6C-9576-192C286D3C74}" name="课程名称" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{6ED4F350-3216-4D68-A323-D21535FB852F}" name="成绩" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B3993A62-2BED-4020-85AA-386AA1B4FB95}" name="学分" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{4BCD21C8-F70F-4419-AA0E-44DA38D05DA1}" name="GPA" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{E3688CA1-881B-42AE-8444-0464F94099C3}" name="加权GPA" dataDxfId="38">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AFDA0D62-4027-4CA4-80A1-1D87A94075A5}" name="APS" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{AFDA0D62-4027-4CA4-80A1-1D87A94075A5}" name="APS" dataDxfId="37">
       <calculatedColumnFormula>1+3*(100-表3[[#This Row],[成绩]])/40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1303,7 +1253,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6001E4AB-FA86-4DFF-8195-22CBE2EA9F96}" name="表1" displayName="表1" ref="H1:M29" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6001E4AB-FA86-4DFF-8195-22CBE2EA9F96}" name="表1" displayName="表1" ref="H1:M29" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="H1:M29" xr:uid="{6DE90789-4E98-428D-8E18-89754857AFBC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1313,14 +1263,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8379CC96-21A7-4486-86ED-074A4E09540E}" name="课程名称" totalsRowLabel="汇总" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{ECD62AF9-7739-42CC-ADE5-2BE7C5868C2F}" name="成绩" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{EEB57FEC-7958-46A1-9F10-A59FDB6A5FD3}" name="学分" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{2666594B-E6BE-4283-B278-F0595BDBD777}" name="GPA" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{B1A17EBB-DA5F-435F-B017-393AC58A64D1}" name="加权GPA" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{8379CC96-21A7-4486-86ED-074A4E09540E}" name="课程名称" totalsRowLabel="汇总" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{ECD62AF9-7739-42CC-ADE5-2BE7C5868C2F}" name="成绩" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{EEB57FEC-7958-46A1-9F10-A59FDB6A5FD3}" name="学分" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{2666594B-E6BE-4283-B278-F0595BDBD777}" name="GPA" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{B1A17EBB-DA5F-435F-B017-393AC58A64D1}" name="加权GPA" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>J2*K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F34DA683-7289-40C1-BD4D-503F81F1FD2A}" name="APS" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{F34DA683-7289-40C1-BD4D-503F81F1FD2A}" name="APS" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>1+3*(100-表1[[#This Row],[成绩]])/40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1329,8 +1279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C29722B-6AB7-433D-8C36-3D902864915B}" name="表3_3" displayName="表3_3" ref="A1:F27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:F27" xr:uid="{9BBFA03D-4BBC-4618-878E-77003F586060}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0C7095E6-1EE8-411A-B230-032DA37243CD}" name="表3_8" displayName="表3_8" ref="A1:F27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F27" xr:uid="{CD0EC566-7E51-458F-BF5D-BF9EBD86C34C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1339,15 +1289,15 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2A57BDF9-BD14-40A9-9EC6-38C45B33A501}" name="课程名称" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{2C5CB69E-342C-4DDC-8648-D69329E6E273}" name="成绩" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{8A585E3C-23B9-4A6D-ABA7-7109F380ED51}" name="学分" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E06CEA52-2371-460D-8A29-385DC86CAAED}" name="GPA" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{91B371DC-4EB4-4407-93B9-D2AE01D3CD71}" name="加权GPA" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{E5FA2838-B793-4924-9D65-A392628BA6DE}" name="课程名称" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{35A10D84-BB8D-4CE5-A422-414F2BE86BD6}" name="成绩" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4D35F333-255B-4E19-9221-496BF4A5110B}" name="学分" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{896D5355-A1A6-4BD5-91E9-D84C9658B1AB}" name="GPA" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6A028299-73B8-4BB6-AFD9-259C2655065A}" name="加权GPA" dataDxfId="15">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8A6F1D40-145F-4265-A941-327E2ACD87C7}" name="APS" dataDxfId="15">
-      <calculatedColumnFormula>1+3*(100-表3_3[[#This Row],[成绩]])/40</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{8DA39A77-8AB0-41DE-98FC-8C8B5825A27C}" name="APS" dataDxfId="14">
+      <calculatedColumnFormula>1+3*(100-表3_8[[#This Row],[成绩]])/40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1355,8 +1305,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F631FAF4-AD13-4A40-9C1E-EC592828F8C8}" name="表1_5" displayName="表1_5" ref="H1:M29" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="H1:M29" xr:uid="{67A21E34-13D4-4ADA-8B3E-04B398C003F4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{000D9ECD-4759-46E4-BC1F-F44754119884}" name="表1_9" displayName="表1_9" ref="H1:M29" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="H1:M29" xr:uid="{84D2EF51-EFA3-43B4-BCFC-CBA88FB25110}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1365,15 +1315,15 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EA130B17-D9F5-435B-B49F-B997F50AA7F0}" name="课程名称" totalsRowLabel="汇总" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{61203773-C047-4DF7-8BF0-624222A8007C}" name="成绩" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D05F6AAE-32CD-4145-9371-CA6095BF449E}" name="学分" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{650D6816-542B-46C7-93AC-C2BF82D5E5BE}" name="GPA" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1CAF3BCD-BBB5-4425-802C-F541D46C8072}" name="加权GPA" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{6C8EA08B-36EA-4EE9-8AFC-B096BB4E39A1}" name="课程名称" totalsRowLabel="汇总" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A15C8F10-28A0-470D-A91E-865BA908CC0A}" name="成绩" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1B295E7F-571B-4241-A938-C98B1F03EF31}" name="学分" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E4B59826-380D-4109-A2F7-9B5048F68BC3}" name="GPA" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E5A13010-58EC-4AFB-9E87-68306FB741F3}" name="加权GPA" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>J2*K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1F31A452-D70D-420E-9B44-EC8CCE1C9EC7}" name="APS" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>1+3*(100-表1_5[[#This Row],[成绩]])/40</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{B687AC29-E097-4D8C-9073-F1543F83D39C}" name="APS" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>1+3*(100-表1_9[[#This Row],[成绩]])/40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1645,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1677,22 +1627,22 @@
         <v>56</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1718,7 +1668,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3">
@@ -1734,7 +1684,7 @@
         <f t="shared" ref="L2:L15" si="1">J2*K2</f>
         <v>7.54</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.825</v>
       </c>
@@ -1761,7 +1711,7 @@
         <v>3.7</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3">
@@ -1777,7 +1727,7 @@
         <f t="shared" si="1"/>
         <v>5.6550000000000002</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.825</v>
       </c>
@@ -1804,7 +1754,7 @@
         <v>3.25</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="3">
@@ -1820,7 +1770,7 @@
         <f t="shared" si="1"/>
         <v>7.86</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.45</v>
       </c>
@@ -1847,7 +1797,7 @@
         <v>1.9</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3">
@@ -1863,7 +1813,7 @@
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.675</v>
       </c>
@@ -1890,7 +1840,7 @@
         <v>2.125</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="3">
@@ -1906,7 +1856,7 @@
         <f t="shared" si="1"/>
         <v>15.96</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.1499999999999999</v>
       </c>
@@ -1933,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="3">
@@ -1945,11 +1895,11 @@
       <c r="K7" s="3">
         <v>3.95</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>5.9250000000000007</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
@@ -1976,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="3">
@@ -1988,11 +1938,11 @@
       <c r="K8" s="3">
         <v>3.95</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
@@ -2019,7 +1969,7 @@
         <v>3.7</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="3">
@@ -2031,11 +1981,11 @@
       <c r="K9" s="3">
         <v>3.32</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f t="shared" si="1"/>
         <v>6.64</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>2.4249999999999998</v>
       </c>
@@ -2062,7 +2012,7 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="3">
@@ -2074,11 +2024,11 @@
       <c r="K10" s="3">
         <v>3.01</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
         <v>4.5149999999999997</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>2.7250000000000001</v>
       </c>
@@ -2105,7 +2055,7 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="3">
@@ -2117,11 +2067,11 @@
       <c r="K11" s="3">
         <v>3.95</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
@@ -2148,7 +2098,7 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="16" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="3">
@@ -2160,11 +2110,11 @@
       <c r="K12" s="3">
         <v>3.58</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f t="shared" si="1"/>
         <v>10.74</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>2.125</v>
       </c>
@@ -2191,7 +2141,7 @@
         <v>2.35</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="3">
@@ -2203,30 +2153,30 @@
       <c r="K13" s="3">
         <v>3.25</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>8.125</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="20">
         <f>SUM(E2:E13)/SUM(C2:C13)</f>
         <v>2.9275925925925921</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <f>AVERAGE(F2:F13)</f>
         <v>2.4937499999999999</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="3">
@@ -2238,11 +2188,11 @@
       <c r="K14" s="3">
         <v>3.91</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <f t="shared" si="1"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.5249999999999999</v>
       </c>
@@ -2269,7 +2219,7 @@
         <v>2.125</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I15" s="3">
@@ -2281,11 +2231,11 @@
       <c r="K15" s="3">
         <v>3.73</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <f t="shared" si="1"/>
         <v>5.5949999999999998</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.9</v>
       </c>
@@ -2312,15 +2262,15 @@
         <v>1.75</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="21">
         <f>SUM(L2:L15)/SUM(J2:J15)</f>
         <v>3.6965384615384616</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="23">
         <f>AVERAGE(M2:M15)</f>
         <v>1.8035714285714282</v>
       </c>
@@ -2347,7 +2297,7 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="3"/>
@@ -2355,11 +2305,11 @@
         <v>1.5</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <f t="shared" ref="L17:L28" si="2">J17*K17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2386,19 +2336,19 @@
         <v>3.0249999999999999</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>1.5</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="11">
+      <c r="K18" s="6"/>
+      <c r="L18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2425,23 +2375,23 @@
         <v>1.6</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>98</v>
       </c>
-      <c r="J19" s="7">
-        <v>4</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6">
         <v>3.99</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <f t="shared" si="2"/>
         <v>15.96</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>1.1499999999999999</v>
       </c>
@@ -2468,19 +2418,19 @@
         <v>2.8</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11">
+      <c r="K20" s="6"/>
+      <c r="L20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2507,19 +2457,19 @@
         <v>2.125</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11">
+      <c r="K21" s="6"/>
+      <c r="L21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2546,19 +2496,19 @@
         <v>1.75</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>2.5</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11">
+      <c r="K22" s="6"/>
+      <c r="L22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2585,19 +2535,19 @@
         <v>1.675</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="11">
+      <c r="K23" s="6"/>
+      <c r="L23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2624,19 +2574,19 @@
         <v>1.675</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="11">
+      <c r="K24" s="6"/>
+      <c r="L24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2663,19 +2613,19 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="11">
+      <c r="K25" s="6"/>
+      <c r="L25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2702,49 +2652,49 @@
         <v>2.35</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="11">
+      <c r="K26" s="6"/>
+      <c r="L26" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="20">
         <f>SUM(E15:E26)/SUM(C15:C26)</f>
         <v>3.4360714285714278</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="20">
         <v>2.11</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
         <v>0.5</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="11">
+      <c r="K27" s="6"/>
+      <c r="L27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2754,10 +2704,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="16" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="3"/>
@@ -2765,11 +2715,11 @@
         <v>1.5</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <f>1+3*(100-表1[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
@@ -2779,36 +2729,36 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="E30" s="5"/>
-      <c r="H30" s="29" t="s">
+      <c r="E30" s="4"/>
+      <c r="H30" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="24"/>
+      <c r="J30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="22">
         <f>(E14*SUM(C2:C13)+E27*SUM(C15:C26)+L16*SUM(J2:J15))/(SUM(C2:C13)+SUM(C15:C26)+SUM(J2:J15))</f>
         <v>3.3501851851851847</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="22">
         <f>(F14*SUM(C2:C13)+F27*SUM(C15:C26)+M16*SUM(J2:J15))/(SUM(C2:C13)+SUM(C15:C26)+SUM(J2:J15))</f>
         <v>2.1395568783068781</v>
       </c>
@@ -2817,73 +2767,73 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -2951,7 +2901,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2967,18 +2917,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27CAEC-07C8-4C78-B020-A6D8DFF9F73F}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3001,22 +2956,22 @@
         <v>56</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3031,18 +2986,18 @@
         <v>5.5</v>
       </c>
       <c r="D2" s="1">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E26" si="0">C2*D2</f>
-        <v>20.9</v>
+        <v>16.5</v>
       </c>
       <c r="F2" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="3">
@@ -3058,8 +3013,8 @@
         <f t="shared" ref="L2:L15" si="1">J2*K2</f>
         <v>8</v>
       </c>
-      <c r="M2" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M2" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.825</v>
       </c>
     </row>
@@ -3074,18 +3029,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>3.7</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3">
@@ -3101,8 +3056,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M3" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M3" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.825</v>
       </c>
     </row>
@@ -3117,18 +3072,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>3.25</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="3">
@@ -3144,8 +3099,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M4" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M4" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.45</v>
       </c>
     </row>
@@ -3167,11 +3122,11 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.9</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3">
@@ -3187,8 +3142,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M5" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M5" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.675</v>
       </c>
     </row>
@@ -3210,11 +3165,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.125</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="3">
@@ -3230,8 +3185,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M6" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M6" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -3246,18 +3201,18 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>4</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="3">
@@ -3269,12 +3224,12 @@
       <c r="K7" s="3">
         <v>4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M7" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M7" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
     </row>
@@ -3296,11 +3251,11 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="3">
@@ -3312,12 +3267,12 @@
       <c r="K8" s="3">
         <v>4</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M8" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M8" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
     </row>
@@ -3332,18 +3287,18 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>3.7</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="3">
@@ -3352,13 +3307,15 @@
       <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9">
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -3380,25 +3337,29 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.5249999999999999</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>77</v>
+      </c>
       <c r="J10" s="3">
         <v>1.5</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="9">
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
-        <v>8.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="M10" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
+        <v>2.7250000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3412,18 +3373,18 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.5750000000000002</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="3">
@@ -3435,12 +3396,12 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M11" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M11" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.375</v>
       </c>
     </row>
@@ -3462,11 +3423,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.5249999999999999</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="16" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="3">
@@ -3478,12 +3439,12 @@
       <c r="K12" s="3">
         <v>4</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="M12" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M12" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>2.125</v>
       </c>
     </row>
@@ -3498,18 +3459,18 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="1">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>5.5500000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.35</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="3">
@@ -3519,32 +3480,32 @@
         <v>2.5</v>
       </c>
       <c r="K13" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="M13" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+        <v>7.5</v>
+      </c>
+      <c r="M13" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="20">
         <f>SUM(E2:E13)/SUM(C2:C13)</f>
-        <v>3.1907407407407402</v>
-      </c>
-      <c r="F14" s="15">
+        <v>2.925925925925926</v>
+      </c>
+      <c r="F14" s="20">
         <f>AVERAGE(F2:F13)</f>
         <v>2.4937499999999999</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="3">
@@ -3556,12 +3517,12 @@
       <c r="K14" s="3">
         <v>4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M14" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M14" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.5249999999999999</v>
       </c>
     </row>
@@ -3583,11 +3544,11 @@
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.125</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I15" s="3">
@@ -3599,12 +3560,12 @@
       <c r="K15" s="3">
         <v>4</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M15" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M15" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.9</v>
       </c>
     </row>
@@ -3626,21 +3587,21 @@
         <v>8</v>
       </c>
       <c r="F16" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.75</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="16">
+      <c r="H16" s="17"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="21">
         <f>SUM(L2:L15)/SUM(J2:J15)</f>
-        <v>3.4134615384615383</v>
-      </c>
-      <c r="M16" s="17">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="M16" s="23">
         <f>AVERAGE(M2:M15)</f>
-        <v>2.216071428571428</v>
+        <v>1.8035714285714282</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3661,11 +3622,11 @@
         <v>6</v>
       </c>
       <c r="F17" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.9750000000000001</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="3"/>
@@ -3673,12 +3634,12 @@
         <v>1.5</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="9">
-        <f t="shared" ref="L17:L27" si="2">J17*K17</f>
+      <c r="L17" s="8">
+        <f t="shared" ref="L17:L28" si="2">J17*K17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M17" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3693,31 +3654,31 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>3.0249999999999999</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <v>1.5</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="11">
+      <c r="K18" s="6"/>
+      <c r="L18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M18" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3739,28 +3700,28 @@
         <v>6</v>
       </c>
       <c r="F19" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.6</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>98</v>
       </c>
-      <c r="J19" s="7">
-        <v>4</v>
-      </c>
-      <c r="K19" s="7">
-        <v>3.99</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6">
+        <v>4</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="2"/>
-        <v>15.96</v>
-      </c>
-      <c r="M19" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+        <v>16</v>
+      </c>
+      <c r="M19" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -3775,31 +3736,31 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.8</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11">
+      <c r="K20" s="6"/>
+      <c r="L20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M20" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3821,24 +3782,24 @@
         <v>4</v>
       </c>
       <c r="F21" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.125</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11">
+      <c r="K21" s="6"/>
+      <c r="L21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M21" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3860,24 +3821,24 @@
         <v>8</v>
       </c>
       <c r="F22" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.75</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <v>2.5</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11">
+      <c r="K22" s="6"/>
+      <c r="L22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M22" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3899,24 +3860,24 @@
         <v>16</v>
       </c>
       <c r="F23" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.675</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="11">
+      <c r="K23" s="6"/>
+      <c r="L23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M23" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3938,24 +3899,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>1.675</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="11">
+      <c r="K24" s="6"/>
+      <c r="L24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M24" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -3970,31 +3931,31 @@
         <v>2.5</v>
       </c>
       <c r="D25" s="1">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="F25" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.5750000000000002</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="11">
+      <c r="K25" s="6"/>
+      <c r="L25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M25" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -4009,61 +3970,61 @@
         <v>5.5</v>
       </c>
       <c r="D26" s="1">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="F26" s="1">
-        <f>1+3*(100-表3_3[[#This Row],[成绩]])/40</f>
+        <f>1+3*(100-表3_8[[#This Row],[成绩]])/40</f>
         <v>2.35</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="11">
+      <c r="K26" s="6"/>
+      <c r="L26" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M26" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="20">
         <f>SUM(E15:E26)/SUM(C15:C26)</f>
-        <v>3.6535714285714289</v>
-      </c>
-      <c r="F27" s="15">
+        <v>3.3928571428571428</v>
+      </c>
+      <c r="F27" s="20">
         <v>2.11</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
         <v>0.5</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="11">
+      <c r="K27" s="6"/>
+      <c r="L27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M27" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -4072,10 +4033,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="16" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="3"/>
@@ -4083,12 +4044,12 @@
         <v>1.5</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="9">
-        <f>J28*K28</f>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="7">
-        <f>1+3*(100-表1_5[[#This Row],[成绩]])/40</f>
+      <c r="M28" s="6">
+        <f>1+3*(100-表1_9[[#This Row],[成绩]])/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -4097,23 +4058,53 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="H30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="22">
+        <f>(E14*SUM(C2:C13)+E27*SUM(C15:C26)+L16*SUM(J2:J15))/(SUM(C2:C13)+SUM(C15:C26)+SUM(J2:J15))</f>
+        <v>3.3580246913580245</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="22">
+        <f>(F14*SUM(C2:C13)+F27*SUM(C15:C26)+M16*SUM(J2:J15))/(SUM(C2:C13)+SUM(C15:C26)+SUM(J2:J15))</f>
+        <v>2.1395568783068781</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H30:I30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E27:F27 E14" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
